--- a/data/trans_camb/P23_DUKE_AC_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AC_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,21</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,5</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 5,96</t>
+          <t>-4,69; 14,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 10,9</t>
+          <t>-6,18; 13,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 6,27</t>
+          <t>-7,18; 12,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 20,73</t>
+          <t>-1,06; 15,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 4,38</t>
+          <t>-3,39; 13,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 13,09</t>
+          <t>-4,28; 12,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 12,26</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 10,73</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 9,94</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,99%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,74%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>4,43%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>41,72%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-3,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,98%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 50,49</t>
+          <t>-5,47; 19,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 92,01</t>
+          <t>-7,07; 17,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 55,69</t>
+          <t>-8,65; 16,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 169,13</t>
+          <t>-1,17; 20,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 34,27</t>
+          <t>-3,57; 17,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 102,0</t>
+          <t>-5,12; 16,51</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 16,28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 14,05</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 13,09</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-6,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,93</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 8,65</t>
+          <t>-2,7; 19,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 8,13</t>
+          <t>-10,78; 13,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 3,52</t>
+          <t>-3,8; 19,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 11,19</t>
+          <t>-8,17; 7,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 4,49</t>
+          <t>-18,92; -0,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 7,75</t>
+          <t>-14,73; 1,77</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 9,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,96; 2,08</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; 7,11</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,04%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,42%</t>
+          <t>-11,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>-6,89%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-6,13%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 80,1</t>
+          <t>-3,37; 29,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 79,49</t>
+          <t>-14,08; 19,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,11; 30,3</t>
+          <t>-4,62; 29,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 90,06</t>
+          <t>-9,0; 9,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 38,49</t>
+          <t>-21,35; -1,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 58,77</t>
+          <t>-16,19; 1,92</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 12,61</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-15,57; 2,69</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-8,88; 9,2</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,51</t>
+          <t>34,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>38,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>32,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>12,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23,67</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,69</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 40,16</t>
+          <t>6,76; 71,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 36,73</t>
+          <t>12,58; 73,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 13,1</t>
+          <t>4,55; 69,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 18,52</t>
+          <t>-2,53; 28,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 23,63</t>
+          <t>-21,22; 18,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 23,65</t>
+          <t>-17,79; 18,44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,11; 49,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 46,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 44,45</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>112,54%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>57,44%</t>
+          <t>-0,35%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34,94%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>27,59%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24,19%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 627,1</t>
+          <t>7,75; 300,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 537,9</t>
+          <t>15,67; 316,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,68; 154,6</t>
+          <t>5,26; 283,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 211,97</t>
+          <t>-2,32; 42,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 231,2</t>
+          <t>-24,39; 25,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 236,02</t>
+          <t>-20,62; 25,92</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 106,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 100,97</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 96,13</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6,89</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 6,97</t>
+          <t>2,08; 18,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 8,75</t>
+          <t>-0,82; 15,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,27</t>
+          <t>0,48; 16,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 13,63</t>
+          <t>-0,42; 10,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,57</t>
+          <t>-7,44; 4,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 8,23</t>
+          <t>-5,99; 5,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 11,54</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 7,52</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 8,44</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>-0,73%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 55,33</t>
+          <t>2,68; 26,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 69,47</t>
+          <t>-0,94; 22,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 25,31</t>
+          <t>0,57; 24,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,08; 94,25</t>
+          <t>-0,44; 13,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 26,81</t>
+          <t>-8,68; 4,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 58,95</t>
+          <t>-7,08; 6,61</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 15,3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 10,06</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 11,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
